--- a/app/Licenciatura_em_Engenharia_Informatica_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Engenharia_Informatica_Pos_Laboral.xlsx
@@ -26,43 +26,41 @@
     <sheet name="20151867" sheetId="16" r:id="rId19"/>
     <sheet name="20151875" sheetId="17" r:id="rId20"/>
     <sheet name="20151854" sheetId="18" r:id="rId21"/>
-    <sheet name="20154435" sheetId="19" r:id="rId22"/>
-    <sheet name="20151840" sheetId="20" r:id="rId23"/>
-    <sheet name="20151843" sheetId="21" r:id="rId24"/>
-    <sheet name="20151842" sheetId="22" r:id="rId25"/>
-    <sheet name="20151845" sheetId="23" r:id="rId26"/>
-    <sheet name="20151865" sheetId="24" r:id="rId27"/>
-    <sheet name="20151872" sheetId="25" r:id="rId28"/>
-    <sheet name="20151853" sheetId="26" r:id="rId29"/>
-    <sheet name="20151860" sheetId="27" r:id="rId30"/>
-    <sheet name="20151852" sheetId="28" r:id="rId31"/>
-    <sheet name="20151884" sheetId="29" r:id="rId32"/>
-    <sheet name="20151877" sheetId="30" r:id="rId33"/>
-    <sheet name="20151889" sheetId="31" r:id="rId34"/>
-    <sheet name="20151866" sheetId="32" r:id="rId35"/>
-    <sheet name="20151863" sheetId="33" r:id="rId36"/>
-    <sheet name="20151847" sheetId="34" r:id="rId37"/>
-    <sheet name="20151849" sheetId="35" r:id="rId38"/>
-    <sheet name="20151841" sheetId="36" r:id="rId39"/>
-    <sheet name="20151878" sheetId="37" r:id="rId40"/>
-    <sheet name="20151881" sheetId="38" r:id="rId41"/>
-    <sheet name="20151869" sheetId="39" r:id="rId42"/>
-    <sheet name="20151844" sheetId="40" r:id="rId43"/>
-    <sheet name="20151851" sheetId="41" r:id="rId44"/>
-    <sheet name="20151850" sheetId="42" r:id="rId45"/>
-    <sheet name="20151868" sheetId="43" r:id="rId46"/>
-    <sheet name="20151864" sheetId="44" r:id="rId47"/>
-    <sheet name="20151880" sheetId="45" r:id="rId48"/>
-    <sheet name="20151887" sheetId="46" r:id="rId49"/>
-    <sheet name="20151888" sheetId="47" r:id="rId50"/>
-    <sheet name="20151848" sheetId="48" r:id="rId51"/>
-    <sheet name="20151871" sheetId="49" r:id="rId52"/>
-    <sheet name="20151858" sheetId="50" r:id="rId53"/>
-    <sheet name="20151856" sheetId="51" r:id="rId54"/>
-    <sheet name="20154523" sheetId="52" r:id="rId55"/>
-    <sheet name="20151885" sheetId="53" r:id="rId56"/>
-    <sheet name="Sheet2" sheetId="54" r:id="rId57"/>
-    <sheet name="Sheet3" sheetId="55" r:id="rId58"/>
+    <sheet name="20151840" sheetId="19" r:id="rId22"/>
+    <sheet name="20151843" sheetId="20" r:id="rId23"/>
+    <sheet name="20151842" sheetId="21" r:id="rId24"/>
+    <sheet name="20151845" sheetId="22" r:id="rId25"/>
+    <sheet name="20151865" sheetId="23" r:id="rId26"/>
+    <sheet name="20151872" sheetId="24" r:id="rId27"/>
+    <sheet name="20151853" sheetId="25" r:id="rId28"/>
+    <sheet name="20151860" sheetId="26" r:id="rId29"/>
+    <sheet name="20151852" sheetId="27" r:id="rId30"/>
+    <sheet name="20151884" sheetId="28" r:id="rId31"/>
+    <sheet name="20151877" sheetId="29" r:id="rId32"/>
+    <sheet name="20151889" sheetId="30" r:id="rId33"/>
+    <sheet name="20151866" sheetId="31" r:id="rId34"/>
+    <sheet name="20151863" sheetId="32" r:id="rId35"/>
+    <sheet name="20151847" sheetId="33" r:id="rId36"/>
+    <sheet name="20151849" sheetId="34" r:id="rId37"/>
+    <sheet name="20151841" sheetId="35" r:id="rId38"/>
+    <sheet name="20151878" sheetId="36" r:id="rId39"/>
+    <sheet name="20151881" sheetId="37" r:id="rId40"/>
+    <sheet name="20151869" sheetId="38" r:id="rId41"/>
+    <sheet name="20151844" sheetId="39" r:id="rId42"/>
+    <sheet name="20151851" sheetId="40" r:id="rId43"/>
+    <sheet name="20151850" sheetId="41" r:id="rId44"/>
+    <sheet name="20151868" sheetId="42" r:id="rId45"/>
+    <sheet name="20151864" sheetId="43" r:id="rId46"/>
+    <sheet name="20151880" sheetId="44" r:id="rId47"/>
+    <sheet name="20151887" sheetId="45" r:id="rId48"/>
+    <sheet name="20151888" sheetId="46" r:id="rId49"/>
+    <sheet name="20151848" sheetId="47" r:id="rId50"/>
+    <sheet name="20151871" sheetId="48" r:id="rId51"/>
+    <sheet name="20151858" sheetId="49" r:id="rId52"/>
+    <sheet name="20151856" sheetId="50" r:id="rId53"/>
+    <sheet name="20151885" sheetId="51" r:id="rId54"/>
+    <sheet name="Sheet2" sheetId="52" r:id="rId55"/>
+    <sheet name="Sheet3" sheetId="53" r:id="rId56"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -70,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="410">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -219,9 +217,6 @@
     <t>Julieta Ubisss</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -258,9 +253,6 @@
     <t>InÊs De Jesus Francisco</t>
   </si>
   <si>
-    <t>Cidade de Chimoio</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -288,9 +280,6 @@
     <t>Miseria Mauai</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110100101861P</t>
   </si>
   <si>
@@ -315,9 +304,6 @@
     <t>Zaida JosÉ BÚfalo</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110100944329S</t>
   </si>
   <si>
@@ -390,9 +376,6 @@
     <t>Saugineta Chicavanhane</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>100100654988C</t>
   </si>
   <si>
@@ -459,9 +442,6 @@
     <t>Saquina Ibrahimo</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110100423296I</t>
   </si>
   <si>
@@ -597,9 +577,6 @@
     <t>Olga Jaime ChambiÇo</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110100437255B</t>
   </si>
   <si>
@@ -621,24 +598,12 @@
     <t>Josefa Caetano</t>
   </si>
   <si>
-    <t>Cidade de Tete</t>
-  </si>
-  <si>
     <t>100101119785B</t>
   </si>
   <si>
     <t>+258849179086</t>
   </si>
   <si>
-    <t>Narciso</t>
-  </si>
-  <si>
-    <t>Milton Micas José</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Munezero</t>
   </si>
   <si>
@@ -981,9 +946,6 @@
     <t>Rosa Eusebio Muianga</t>
   </si>
   <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
     <t>AF076320</t>
   </si>
   <si>
@@ -1146,9 +1108,6 @@
     <t>Veronica Sebastiao Mcossa</t>
   </si>
   <si>
-    <t>Distrito de Manhiça</t>
-  </si>
-  <si>
     <t>090201602048F</t>
   </si>
   <si>
@@ -1318,12 +1277,6 @@
   </si>
   <si>
     <t>+258848902024</t>
-  </si>
-  <si>
-    <t>Augusto</t>
-  </si>
-  <si>
-    <t>Lucas Francisco</t>
   </si>
   <si>
     <t>Americo</t>
@@ -2604,7 +2557,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2620,7 +2573,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2636,7 +2589,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2652,7 +2605,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2668,7 +2621,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2683,9 +2636,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2693,7 +2644,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2704,7 +2655,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2713,7 +2664,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2725,7 +2676,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2733,7 +2684,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2829,7 +2780,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2872,7 +2823,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3199,7 +3150,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3215,7 +3166,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3231,7 +3182,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3247,7 +3198,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3263,7 +3214,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3278,9 +3229,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>129</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3288,7 +3237,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3299,7 +3248,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3308,7 +3257,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3320,7 +3269,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3328,7 +3277,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3424,7 +3373,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3467,7 +3416,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3794,7 +3743,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3810,7 +3759,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3826,7 +3775,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3842,7 +3791,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3858,7 +3807,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3873,9 +3822,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>129</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3883,7 +3830,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3894,7 +3841,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3903,7 +3850,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3915,7 +3862,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3923,7 +3870,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4019,7 +3966,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4062,7 +4009,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4389,7 +4336,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4405,7 +4352,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4421,7 +4368,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4437,7 +4384,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4453,7 +4400,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4468,9 +4415,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4478,7 +4423,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4489,7 +4434,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4498,7 +4443,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4510,7 +4455,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4518,7 +4463,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4614,7 +4559,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4657,7 +4602,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4984,7 +4929,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5000,7 +4945,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5016,7 +4961,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5032,7 +4977,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5048,7 +4993,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5063,9 +5008,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5073,7 +5016,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5084,7 +5027,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5093,7 +5036,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5105,7 +5048,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5113,7 +5056,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5209,7 +5152,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5252,7 +5195,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5579,7 +5522,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5595,7 +5538,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5611,7 +5554,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5627,7 +5570,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5643,7 +5586,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5658,9 +5601,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5668,7 +5609,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5679,7 +5620,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5688,7 +5629,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5700,7 +5641,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5708,7 +5649,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5804,7 +5745,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5847,7 +5788,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6174,7 +6115,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6190,7 +6131,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6206,7 +6147,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6222,7 +6163,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6238,7 +6179,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6253,9 +6194,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6263,7 +6202,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6274,7 +6213,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6283,7 +6222,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6295,7 +6234,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6303,7 +6242,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6399,7 +6338,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6442,7 +6381,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6769,7 +6708,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6785,7 +6724,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6801,7 +6740,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6817,7 +6756,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6833,7 +6772,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6848,9 +6787,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>175</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6858,7 +6795,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6869,7 +6806,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6878,7 +6815,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6890,7 +6827,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6898,7 +6835,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6994,7 +6931,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7037,7 +6974,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7364,7 +7301,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7380,7 +7317,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7396,7 +7333,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7412,7 +7349,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7428,7 +7365,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7443,9 +7380,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>183</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7453,7 +7388,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7464,7 +7399,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7473,7 +7408,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7485,7 +7420,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7493,7 +7428,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7589,7 +7524,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7632,7 +7567,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7883,7 +7818,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -7933,7 +7870,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154435</v>
+        <v>20151840</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7957,7 +7894,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7973,7 +7910,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7988,7 +7925,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>180</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -8002,7 +7941,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>181</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -8016,7 +7957,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>182</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -8037,7 +7980,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -8046,14 +7991,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -8063,13 +8012,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>183</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -8164,7 +8117,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8190,7 +8143,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -8204,7 +8159,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>133</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -8609,9 +8566,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8619,7 +8574,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8630,7 +8585,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8639,7 +8594,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8651,7 +8606,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8659,7 +8614,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8755,7 +8710,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8798,7 +8753,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9101,7 +9056,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151840</v>
+        <v>20151843</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9125,7 +9080,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9141,7 +9096,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9157,7 +9112,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9173,7 +9128,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9189,7 +9144,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9204,9 +9159,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9214,7 +9167,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9225,7 +9178,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9234,7 +9187,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9246,7 +9199,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9254,7 +9207,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9350,7 +9303,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9377,7 +9330,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9393,7 +9346,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9696,7 +9649,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151843</v>
+        <v>20151842</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9720,7 +9673,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9736,7 +9689,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9752,7 +9705,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9768,7 +9721,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9784,7 +9737,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9799,9 +9752,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9809,7 +9760,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9820,7 +9771,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9829,7 +9780,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9841,7 +9792,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9849,7 +9800,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9945,7 +9896,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9972,7 +9923,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9988,7 +9939,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10291,7 +10242,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151842</v>
+        <v>20151845</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10315,7 +10266,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10331,7 +10282,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10347,7 +10298,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10363,7 +10314,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10379,7 +10330,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10394,9 +10345,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10404,7 +10353,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10415,7 +10364,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10424,7 +10373,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10436,7 +10385,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>204</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10444,7 +10393,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10540,7 +10489,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10567,7 +10516,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10583,7 +10532,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10886,7 +10835,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151845</v>
+        <v>20151865</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10910,7 +10859,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10926,7 +10875,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10942,7 +10891,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10958,7 +10907,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10974,7 +10923,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10989,9 +10938,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>129</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10999,7 +10946,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11010,7 +10957,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11019,7 +10966,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11031,7 +10978,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>215</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11039,7 +10986,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11135,7 +11082,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11162,7 +11109,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11178,7 +11125,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11481,7 +11428,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151865</v>
+        <v>20151872</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11505,7 +11452,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11521,7 +11468,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11537,7 +11484,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11553,7 +11500,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11569,7 +11516,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11584,9 +11531,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11594,7 +11539,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11605,7 +11550,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11614,7 +11559,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11626,7 +11571,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11634,7 +11579,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11730,7 +11675,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11757,7 +11702,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11773,7 +11718,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12076,7 +12021,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151872</v>
+        <v>20151853</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12100,7 +12045,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12116,7 +12061,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12132,7 +12077,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12148,7 +12093,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12164,7 +12109,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12179,9 +12124,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>175</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12189,7 +12132,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12200,7 +12143,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12209,7 +12152,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12221,7 +12164,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12229,7 +12172,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12325,7 +12268,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12352,7 +12295,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12368,7 +12311,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12671,7 +12614,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151853</v>
+        <v>20151860</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12695,7 +12638,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12711,7 +12654,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12727,7 +12670,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12743,7 +12686,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12759,7 +12702,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12774,9 +12717,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12784,7 +12725,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12795,7 +12736,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12804,7 +12745,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12816,7 +12757,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12824,7 +12765,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12920,7 +12861,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12947,7 +12888,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12963,7 +12904,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13266,7 +13207,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151860</v>
+        <v>20151852</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13290,7 +13231,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13306,7 +13247,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13322,7 +13263,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13338,7 +13279,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13354,7 +13295,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13369,9 +13310,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13379,7 +13318,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13390,7 +13329,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13399,7 +13338,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13411,7 +13350,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13419,7 +13358,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13515,7 +13454,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13558,7 +13497,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13861,7 +13800,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151852</v>
+        <v>20151884</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13885,7 +13824,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13901,7 +13840,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13917,7 +13856,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13933,7 +13872,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13949,7 +13888,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13964,9 +13903,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13974,7 +13911,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13985,7 +13922,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13994,7 +13931,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14006,15 +13943,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>255</v>
+      <c r="H17" s="20">
+        <v>394406</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14110,7 +14047,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14137,7 +14074,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14153,7 +14090,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14456,7 +14393,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151884</v>
+        <v>20151877</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14480,7 +14417,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14496,7 +14433,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14512,7 +14449,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14528,7 +14465,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14544,7 +14481,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14559,9 +14496,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14569,7 +14504,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14580,7 +14515,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14589,7 +14524,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14601,15 +14536,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>394406</v>
+      <c r="H17" s="20" t="s">
+        <v>258</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14705,7 +14640,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14748,7 +14683,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15075,7 +15010,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15091,7 +15026,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15107,7 +15042,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15123,7 +15058,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15139,7 +15074,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15154,9 +15089,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15164,7 +15097,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15175,7 +15108,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15184,7 +15117,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15196,7 +15129,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15204,7 +15137,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15300,7 +15233,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15343,7 +15276,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15646,7 +15579,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151877</v>
+        <v>20151889</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15670,7 +15603,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15686,7 +15619,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15702,7 +15635,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15718,7 +15651,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15734,7 +15667,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15749,9 +15682,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>129</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15759,7 +15690,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15770,7 +15701,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15779,7 +15710,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>268</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15791,7 +15722,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15799,7 +15730,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15895,7 +15826,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15922,7 +15853,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15938,7 +15869,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16241,7 +16172,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151889</v>
+        <v>20151866</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16265,7 +16196,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16281,7 +16212,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16297,7 +16228,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16313,7 +16244,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16329,7 +16260,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16344,9 +16275,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16354,7 +16283,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16365,7 +16294,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16374,7 +16303,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16386,7 +16315,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16394,7 +16323,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16490,7 +16419,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16517,7 +16446,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16533,7 +16462,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16836,7 +16765,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151866</v>
+        <v>20151863</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16860,7 +16789,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16876,7 +16805,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16892,7 +16821,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16908,7 +16837,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16924,7 +16853,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16939,9 +16868,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16949,7 +16876,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16960,7 +16887,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16969,7 +16896,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16981,7 +16908,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16989,7 +16916,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17085,7 +17012,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17128,7 +17055,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17431,7 +17358,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151863</v>
+        <v>20151847</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17455,7 +17382,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17471,7 +17398,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17487,7 +17414,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17503,7 +17430,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17519,7 +17446,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17534,9 +17461,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17544,7 +17469,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17555,7 +17480,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17564,7 +17489,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17576,7 +17501,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17584,7 +17509,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17680,7 +17605,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17707,7 +17632,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -17723,7 +17648,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18026,7 +17951,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151847</v>
+        <v>20151849</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18050,7 +17975,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18066,7 +17991,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18082,7 +18007,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18098,7 +18023,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18114,7 +18039,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18129,9 +18054,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>129</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18139,7 +18062,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18150,7 +18073,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18159,7 +18082,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18171,7 +18094,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>204</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18179,7 +18102,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18275,7 +18198,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18302,7 +18225,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -18318,7 +18241,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18621,7 +18544,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151849</v>
+        <v>20151841</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18645,7 +18568,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18661,7 +18584,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18677,7 +18600,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18693,7 +18616,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18709,7 +18632,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18724,9 +18647,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>303</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18734,7 +18655,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18745,7 +18666,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18754,7 +18675,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18766,7 +18687,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>215</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18774,7 +18695,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18870,7 +18791,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18897,7 +18818,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -18913,7 +18834,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19216,7 +19137,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151841</v>
+        <v>20151878</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19240,7 +19161,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19256,7 +19177,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19272,7 +19193,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19288,7 +19209,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19304,7 +19225,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19319,9 +19240,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19329,7 +19248,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19340,7 +19259,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19349,7 +19268,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19361,7 +19280,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19369,7 +19288,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19465,7 +19384,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19508,7 +19427,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>139</v>
+        <v>306</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19811,7 +19730,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151878</v>
+        <v>20151881</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19835,7 +19754,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19851,7 +19770,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19867,7 +19786,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19883,7 +19802,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19899,7 +19818,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19914,9 +19833,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19924,7 +19841,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19935,7 +19852,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19944,7 +19861,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19956,7 +19873,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19964,7 +19881,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20060,7 +19977,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20087,7 +20004,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -20103,7 +20020,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>318</v>
+        <v>215</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20406,7 +20323,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151881</v>
+        <v>20151869</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20430,7 +20347,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20446,7 +20363,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20462,7 +20379,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20478,7 +20395,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20494,7 +20411,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20509,9 +20426,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20519,7 +20434,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20530,7 +20445,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20539,7 +20454,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20551,7 +20466,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20559,7 +20474,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20655,7 +20570,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20682,7 +20597,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -20698,7 +20613,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>226</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21001,7 +20916,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151869</v>
+        <v>20151844</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -21025,7 +20940,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21041,7 +20956,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21057,7 +20972,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21073,7 +20988,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21089,7 +21004,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21104,9 +21019,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21114,7 +21027,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21125,7 +21038,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21134,7 +21047,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21146,7 +21059,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21154,7 +21067,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21250,7 +21163,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21277,7 +21190,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -21293,7 +21206,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21620,7 +21533,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21636,7 +21549,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21652,7 +21565,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21668,7 +21581,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21684,7 +21597,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21699,9 +21612,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21709,7 +21620,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21720,7 +21631,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21729,7 +21640,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21741,7 +21652,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21749,7 +21660,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21845,7 +21756,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21888,7 +21799,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22191,7 +22102,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151844</v>
+        <v>20151851</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22215,7 +22126,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22231,7 +22142,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22247,7 +22158,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22262,9 +22173,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>336</v>
-      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -22279,7 +22188,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22294,9 +22203,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22304,7 +22211,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22315,7 +22222,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22324,7 +22231,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22336,7 +22243,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22344,7 +22251,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22440,7 +22347,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22467,7 +22374,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -22483,7 +22390,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22786,7 +22693,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151851</v>
+        <v>20151850</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22810,7 +22717,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22826,7 +22733,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22842,7 +22749,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22857,7 +22764,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>337</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -22872,7 +22781,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22887,9 +22796,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22897,7 +22804,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22908,7 +22815,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22917,7 +22824,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22929,7 +22836,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22937,7 +22844,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23033,7 +22940,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23060,7 +22967,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -23076,7 +22983,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23379,7 +23286,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151850</v>
+        <v>20151868</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23403,7 +23310,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23419,7 +23326,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23435,7 +23342,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23451,7 +23358,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23467,7 +23374,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23482,9 +23389,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23492,7 +23397,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23503,7 +23408,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23512,7 +23417,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23524,7 +23429,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23532,7 +23437,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23628,7 +23533,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23671,7 +23576,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23974,7 +23879,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151868</v>
+        <v>20151864</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23998,7 +23903,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24014,7 +23919,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24030,7 +23935,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24046,7 +23951,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24062,7 +23967,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24077,9 +23982,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>358</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24087,7 +23990,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24098,7 +24001,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24107,7 +24010,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24119,7 +24022,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24127,7 +24030,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24223,7 +24126,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24250,7 +24153,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -24266,7 +24169,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24569,7 +24472,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151864</v>
+        <v>20151880</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -24593,7 +24496,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24609,7 +24512,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24625,7 +24528,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24641,7 +24544,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24657,7 +24560,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24672,9 +24575,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24682,7 +24583,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24693,7 +24594,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24702,7 +24603,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24714,7 +24615,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24722,7 +24623,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24818,7 +24719,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24845,7 +24746,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -24861,7 +24762,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25164,7 +25065,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151880</v>
+        <v>20151887</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -25188,7 +25089,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25204,7 +25105,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25220,7 +25121,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25236,7 +25137,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25252,7 +25153,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25267,9 +25168,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>129</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25277,7 +25176,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25288,7 +25187,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25297,7 +25196,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25309,7 +25208,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25317,7 +25216,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25413,7 +25312,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25440,7 +25339,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -25456,7 +25355,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>306</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25759,7 +25658,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151887</v>
+        <v>20151888</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -25799,7 +25698,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25815,7 +25714,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25831,7 +25730,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25847,7 +25746,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25862,9 +25761,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>175</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25872,7 +25769,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25883,7 +25780,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25892,7 +25789,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>268</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25904,7 +25801,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25912,7 +25809,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26008,7 +25905,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26035,7 +25932,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -26051,7 +25948,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>318</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26354,7 +26251,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151888</v>
+        <v>20151848</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -26378,7 +26275,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26394,7 +26291,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26410,7 +26307,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26426,7 +26323,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26442,7 +26339,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26457,9 +26354,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26467,7 +26362,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26478,7 +26373,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26487,7 +26382,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26499,7 +26394,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26507,7 +26402,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26603,7 +26498,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26630,7 +26525,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -26646,7 +26541,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26949,7 +26844,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151848</v>
+        <v>20151871</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -26973,7 +26868,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26989,7 +26884,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27005,7 +26900,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27021,7 +26916,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27037,7 +26932,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27052,9 +26947,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27062,7 +26955,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27073,7 +26966,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27082,7 +26975,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27094,7 +26987,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27102,7 +26995,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27198,7 +27091,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27241,7 +27134,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>242</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -27544,7 +27437,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151871</v>
+        <v>20151858</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -27568,7 +27461,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -27584,7 +27477,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27600,7 +27493,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27616,7 +27509,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27632,7 +27525,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27647,9 +27540,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>129</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27657,7 +27548,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27668,7 +27559,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27677,7 +27568,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27689,7 +27580,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27697,7 +27588,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27793,7 +27684,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27836,7 +27727,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28163,7 +28054,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28179,7 +28070,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28195,7 +28086,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28211,7 +28102,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28227,7 +28118,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28242,9 +28133,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28252,7 +28141,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28263,7 +28152,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28272,7 +28161,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28284,7 +28173,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28292,7 +28181,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28388,7 +28277,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28431,7 +28320,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28734,7 +28623,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151858</v>
+        <v>20151856</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -28758,7 +28647,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28774,7 +28663,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28790,7 +28679,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28806,7 +28695,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28822,7 +28711,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28837,9 +28726,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>129</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28847,7 +28734,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28858,7 +28745,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28867,7 +28754,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28879,7 +28766,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>400</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28887,7 +28774,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28983,7 +28870,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29010,7 +28897,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -29026,7 +28913,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -29329,7 +29216,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151856</v>
+        <v>20151885</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -29353,7 +29240,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -29369,7 +29256,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -29385,7 +29272,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -29401,7 +29288,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -29417,7 +29304,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -29432,9 +29319,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -29442,7 +29327,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -29453,7 +29338,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -29462,7 +29347,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -29474,7 +29359,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>413</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -29482,7 +29367,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -29578,7 +29463,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29605,7 +29490,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -29621,7 +29506,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -29824,1172 +29709,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154523</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>416</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151885</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>421</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>424</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2012</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -31013,7 +29732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -31170,7 +29889,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -31186,7 +29905,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -31202,7 +29921,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -31218,7 +29937,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -31234,7 +29953,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -31249,9 +29968,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -31259,7 +29976,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -31270,7 +29987,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -31279,7 +29996,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -31291,7 +30008,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -31299,7 +30016,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -31395,7 +30112,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -31438,7 +30155,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -31765,7 +30482,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -31781,7 +30498,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -31797,7 +30514,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -31813,7 +30530,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -31829,7 +30546,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -31844,9 +30561,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -31854,7 +30569,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -31865,7 +30580,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -31874,7 +30589,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -31886,7 +30601,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -31894,7 +30609,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -31990,7 +30705,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -32033,7 +30748,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -32360,7 +31075,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -32376,7 +31091,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -32392,7 +31107,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -32408,7 +31123,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -32424,7 +31139,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -32439,9 +31154,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -32449,7 +31162,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -32460,7 +31173,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -32469,7 +31182,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -32481,7 +31194,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -32489,7 +31202,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -32585,7 +31298,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -32628,7 +31341,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -32955,7 +31668,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -32971,7 +31684,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -32987,7 +31700,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -33003,7 +31716,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -33019,7 +31732,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -33034,9 +31747,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -33044,7 +31755,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -33055,7 +31766,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -33064,7 +31775,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -33076,7 +31787,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -33084,7 +31795,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -33180,7 +31891,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -33223,7 +31934,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
